--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0F72F445-7843-4E4B-AC0B-1647AACF08BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\git\DataDrivenFramework\src\test\resources\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E376E0A-5A5F-4EF6-8988-FACDCF46BEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3DBD12D6-3DC8-45C0-AEB5-EC883F2862E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{3DBD12D6-3DC8-45C0-AEB5-EC883F2862E1}"/>
   </bookViews>
   <sheets>
     <sheet name="addCustomer" sheetId="1" r:id="rId1"/>
@@ -13,26 +18,16 @@
     <sheet name="runmode" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J6"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>First Name</t>
   </si>
@@ -91,13 +86,7 @@
     <t>yes</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>dollar</t>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -460,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFD092D-93F3-4B3B-BA39-96453FCF3770}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,7 +509,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -530,10 +519,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9558A528-B376-494A-9D30-3D6185FC82AD}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,19 +563,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -594,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA977A30-9359-45B6-A941-27ECB6D46815}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\git\DataDrivenFramework\src\test\resources\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E376E0A-5A5F-4EF6-8988-FACDCF46BEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{DE17056B-D4A9-4B59-B009-7EA6171D8DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{3DBD12D6-3DC8-45C0-AEB5-EC883F2862E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{3DBD12D6-3DC8-45C0-AEB5-EC883F2862E1}"/>
   </bookViews>
   <sheets>
     <sheet name="addCustomer" sheetId="1" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <sheet name="runmode" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:K8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
